--- a/GUI/registration/employees.xlsx
+++ b/GUI/registration/employees.xlsx
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>EMP_1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sample@yahoocheese.com</t>
+          <t>ryann@mail.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,81 +486,81 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ewam</t>
+          <t>BSIT</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>091234567890</t>
+          <t>09123456789</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1k</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sample</t>
+          <t>Sa bahay</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>EMP_2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sdfdh</t>
+          <t>Malabanan, RySes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>oihoi</t>
+          <t>ryses@email.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>hoih</t>
+          <t>male</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>oiiho</t>
+          <t>BSIT</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>hooih</t>
+          <t>09123456789</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>iuho</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ihopih</t>
+          <t>Sa bahay</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>EMP_3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Malabanan, RySes</t>
+          <t>Malabanan, Kim</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ryses@developer.com</t>
+          <t>kim@email.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>IT Dept</t>
+          <t>BSIT</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -580,12 +580,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>charot</t>
+          <t>Sample</t>
         </is>
       </c>
     </row>

--- a/GUI/registration/employees.xlsx
+++ b/GUI/registration/employees.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,6 +590,174 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EMP_4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Samplle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>a@a.a</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EMP_5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>adawedqa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>hujh</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>hiuh</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>hhkj</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EMP_6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CJ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>cj@panis.sikimm</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>BSIT</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>09123456789</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>600000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Xa bahai qhou puuu</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EMP_7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>j@a.a</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>01920123901</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0978098</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>hehe</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GUI/registration/employees.xlsx
+++ b/GUI/registration/employees.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -758,6 +758,48 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EMP_8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>sda</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>widjqoiw</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Finance Department</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>7878</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>kjsnfisa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GUI/registration/employees.xlsx
+++ b/GUI/registration/employees.xlsx
@@ -1042,7 +1042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
@@ -1389,7 +1389,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EMP_9</t>
+          <t>EMP_10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1431,7 +1431,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EMP_10</t>
+          <t>EMP_11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1470,49 +1470,7 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>EMP_11</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>awda</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ddqwdq</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Data Analysis</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>hjbjh</t>
-        </is>
-      </c>
-    </row>
-    <row r="12"/>
+    <row r="11"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GUI/registration/employees.xlsx
+++ b/GUI/registration/employees.xlsx
@@ -1042,7 +1042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sa bahay</t>
+          <t>Sa bahay namin 22</t>
         </is>
       </c>
     </row>
@@ -1179,17 +1179,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EMP_3</t>
+          <t>EMP_5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ewrwiu</t>
+          <t>awda</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sdhhfiuw</t>
+          <t>ddqwdq</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1199,29 +1199,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Programmer</t>
+          <t>Data Analysis</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ijoiewrfj</t>
+          <t>hjbjh</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EMP_4</t>
+          <t>EMP_8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1263,7 +1263,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EMP_5</t>
+          <t>EMP_11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1305,17 +1305,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EMP_7</t>
+          <t>EMP_12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>awda</t>
+          <t>Shanghai gc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ddqwdq</t>
+          <t>shanghai@e.c</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1325,152 +1325,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Data Analysis</t>
+          <t>Chief Operating Officer</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>09</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0999</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>hjbjh</t>
+          <t>add2</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>EMP_8</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>awda</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ddqwdq</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Data Analysis</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>hjbjh</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>EMP_10</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>awda</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ddqwdq</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Data Analysis</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>hjbjh</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>EMP_11</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>awda</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ddqwdq</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Data Analysis</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>hjbjh</t>
-        </is>
-      </c>
-    </row>
-    <row r="11"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
